--- a/medicine/Enfance/Georges_Riguet/Georges_Riguet.xlsx
+++ b/medicine/Enfance/Georges_Riguet/Georges_Riguet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Georges Riguet est un écrivain régionaliste français, poète et auteur pour la jeunesse, né le 28 juillet 1904 à Uxeau (Saône-et-Loire) et mort au Creusot (Saône-et-Loire) en avril 1998.
 Il est auteur de contes, de chansons, de récits, de livres de lectures scolaires, et a rédigé un grand nombre d'articles pour les journaux et revues de Saône-et-Loire et du Morvan. Il fait également partie des tout  premiers membres de l'Académie du Morvan lors de sa fondation en 1967.
@@ -513,11 +525,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Georges Riguet passe son enfance à Uxeau son village natal et à Autun où son père est instituteur jusqu'en 1913. Il fréquente ensuite le cours complémentaire du Creusot puis l'école normale de Mâcon entre 1920 et 1923[1].
-Devenu instituteur à son tour, il est affecté à Rully puis fait son service militaire en Afrique du Nord. Il est ensuite nommé instituteur au Creusot en 1926, puis assure des fonctions de direction grâce auxquelles il est distingué officier des Palmes académiques[1].
-Il est encouragé à écrire par le poète Gustave Gasser et l'écrivain Paul Cazin[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Georges Riguet passe son enfance à Uxeau son village natal et à Autun où son père est instituteur jusqu'en 1913. Il fréquente ensuite le cours complémentaire du Creusot puis l'école normale de Mâcon entre 1920 et 1923.
+Devenu instituteur à son tour, il est affecté à Rully puis fait son service militaire en Afrique du Nord. Il est ensuite nommé instituteur au Creusot en 1926, puis assure des fonctions de direction grâce auxquelles il est distingué officier des Palmes académiques.
+Il est encouragé à écrire par le poète Gustave Gasser et l'écrivain Paul Cazin.
 </t>
         </is>
       </c>
@@ -548,8 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Récit et conte
-Légendes et récits tunisiens, Paris, Larousse, Les Livres Roses, 1926
+          <t>Récit et conte</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Légendes et récits tunisiens, Paris, Larousse, Les Livres Roses, 1926
 Le Creusot, Cité calomniée, Paris-Nevers, Revue du Centre, 1930
 Histoires de bêtes, Saumur, éditions de l'École Émancipée, 1931-1932
 Contes de l'Afrique du Nord, Paris, Larousse, Les Livres Roses, 1933
@@ -560,9 +579,43 @@
 Couleurs du temps (Prix des Poètes du Centre 1965)
 L'Écharpe d'iris, Paris, Hachette, 1990 (Florilège du Grand Prix de Poésie de la Jeunesse)
 Gens de Bourgogne, Anthologie, Besançon, L'Amitié par le livre, 1993
-Contes morvandiaux, Nanton, Hérode, 2002 (ISBN 978-2-908971-12-5)
-Poésie
-Les Feux follets, Paris, Eugène Figuière, 1928
+Contes morvandiaux, Nanton, Hérode, 2002 (ISBN 978-2-908971-12-5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Georges_Riguet</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Georges_Riguet</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les Feux follets, Paris, Eugène Figuière, 1928
 Croquis, Nevers, Imprimerie de la Jeune-Académie, 1929
 Sérénades, Montceau-les-Mines, Imprimerie Ouvrière, 1930
 Chants nouveaux, Montceau-les-Mines, Imprimerie Ouvrière, 1933
@@ -575,33 +628,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Georges_Riguet</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Georges_Riguet</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Le prix de poésie Georges Riguet</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À la suite de sa mort, le « prix de poésie Georges Riguet » est créé en 1999 pour honorer l'écrivain. Il est ouvert à tous les poètes d'expression française et est remis chaque année au château de la Verrerie du Creusot[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la suite de sa mort, le « prix de poésie Georges Riguet » est créé en 1999 pour honorer l'écrivain. Il est ouvert à tous les poètes d'expression française et est remis chaque année au château de la Verrerie du Creusot.
 </t>
         </is>
       </c>
